--- a/Question_Sets/Role-specific skills/Adobe Photoshop for Graphic Designers.xlsx
+++ b/Question_Sets/Role-specific skills/Adobe Photoshop for Graphic Designers.xlsx
@@ -16,23 +16,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'In the Layers panel shown below, where will a new layer appear?', 'ques_type': 2, 'options': ['Above the layer “dog”', 'Above the layer “Purple Banner”', 'Above the layer “Logo”', 'Above the layer “Background”'], 'score': 'Above the layer “Purple Banner”'}, {'title': 'In the screenshot below, the Magic Wand tool has a tolerance setting of 25. What does that mean?', 'ques_type': 2, 'options': ['It will select up to 25 adjacent color tones to the area clicked.', 'It will select all similar colors to the area clicked within a radius of 25 pixels.', 'It will create a selection of 25 pixels.', 'It will add 25 pixels to the selection every time the Magic Wand tool is used.'], 'score': 'It will select up to 25 adjacent color tones to the area clicked.'}, {'title': 'When creating a clipping mask from type, like the one shown below, where does the layer being masked need to be in relation to the text layer?', 'ques_type': 2, 'options': ['Anywhere above the text layer', 'Directly above the text layer', 'Anywhere below the text layer', 'Directly below the text layer', 'In a folder below the text layer'], 'score': 'Directly above the text layer'}, {'title': 'Besides having an extremely steady hand, how can you draw a straight line with the Brush tool?', 'ques_type': 2, 'options': ['Double-click the Brush tool in the tool bar and select the “Straight Lines” option in the pop-up dialogue box', 'Select the “Straight Lines” option in the options bar', 'Click once with the Brush tool, press the Shift key on the keyboard, and click again in a different area. ', 'Press Command (Mac) / Control (Win) on the keyboard and then draw a line with the Brush tool'], 'score': 'Click once with the Brush tool, press the Shift key on the keyboard, and click again in a different area.'}]</t>
+    <t>questions = [
+    {
+        "title": "In the Layers panel shown below, where will a new layer appear?",
+        "ques_type": 2,
+        "options": [
+            "Above the layer \u201cdog\u201d",
+            "Above the layer \u201cPurple Banner\u201d",
+            "Above the layer \u201cLogo\u201d",
+            "Above the layer \u201cBackground\u201d"
+        ],
+        "score": "Above the layer \u201cPurple Banner\u201d"
+    },
+    {
+        "title": "In the screenshot below, the Magic Wand tool has a tolerance setting of 25. What does that mean?",
+        "ques_type": 2,
+        "options": [
+            "It will select up to 25 adjacent color tones to the area clicked.",
+            "It will select all similar colors to the area clicked within a radius of 25 pixels.",
+            "It will create a selection of 25 pixels.",
+            "It will add 25 pixels to the selection every time the Magic Wand tool is used."
+        ],
+        "score": "It will select up to 25 adjacent color tones to the area clicked."
+    },
+    {
+        "title": "When creating a clipping mask from type, like the one shown below, where does the layer being masked need to be in relation to the text layer?",
+        "ques_type": 2,
+        "options": [
+            "Anywhere above the text layer",
+            "Directly above the text layer",
+            "Anywhere below the text layer",
+            "Directly below the text layer",
+            "In a folder below the text layer"
+        ],
+        "score": "Directly above the text layer"
+    },
+    {
+        "title": "Besides having an extremely steady hand, how can you draw a straight line with the Brush tool?",
+        "ques_type": 2,
+        "options": [
+            "Double-click the Brush tool in the tool bar and select the \u201cStraight Lines\u201d option in the pop-up dialogue box",
+            "Select the \u201cStraight Lines\u201d option in the options bar",
+            "Click once with the Brush tool, press the Shift key on the keyboard, and click again in a different area. ",
+            "Press Command (Mac) / Control (Win) on the keyboard and then draw a line with the Brush tool"
+        ],
+        "score": "Click once with the Brush tool, press the Shift key on the keyboard, and click again in a different area."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +94,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
